--- a/Crypto/val.xlsx
+++ b/Crypto/val.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1182,214 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
